--- a/Output_testing/R1_201907/Country/HKD/MN/IRAN_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/IRAN_201907_HKD_MN.xlsx
@@ -553,8 +553,10 @@
       <c r="F7" s="8" t="n">
         <v>0.511543</v>
       </c>
-      <c r="G7" s="8" t="n">
-        <v>0.438637</v>
+      <c r="G7" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
       <c r="H7" s="9" t="n">
         <v>91.82006630637596</v>

--- a/Output_testing/R1_201907/Country/HKD/MN/IRAN_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/IRAN_201907_HKD_MN.xlsx
@@ -812,136 +812,433 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="n"/>
-      <c r="C18" s="12" t="n"/>
-      <c r="D18" s="13" t="n"/>
-      <c r="E18" s="12" t="n"/>
-      <c r="F18" s="13" t="n"/>
-      <c r="G18" s="12" t="n"/>
-      <c r="H18" s="13" t="n"/>
-      <c r="I18" s="12" t="n"/>
-      <c r="J18" s="13" t="n"/>
-      <c r="K18" s="13" t="n"/>
+      <c r="A18" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>291.989107</v>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>27.79796747121575</v>
+      </c>
+      <c r="E18" s="8" t="n">
+        <v>952.214664</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>52.84377175266462</v>
+      </c>
+      <c r="G18" s="8" t="n">
+        <v>1118.565686</v>
+      </c>
+      <c r="H18" s="9" t="n">
+        <v>61.77766586566846</v>
+      </c>
+      <c r="I18" s="8" t="n">
+        <v>198.22165</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>40.84096319702723</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>-81.63862229017795</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="n"/>
-      <c r="C19" s="12" t="n"/>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="12" t="n"/>
-      <c r="F19" s="13" t="n"/>
-      <c r="G19" s="12" t="n"/>
-      <c r="H19" s="13" t="n"/>
-      <c r="I19" s="12" t="n"/>
-      <c r="J19" s="13" t="n"/>
-      <c r="K19" s="13" t="n"/>
+      <c r="A19" s="11" t="inlineStr">
+        <is>
+          <t>598</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>MISCELLANEOUS CHEMICAL PRODUCTS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>72.292697</v>
+      </c>
+      <c r="D19" s="9" t="n">
+        <v>6.882414416961301</v>
+      </c>
+      <c r="E19" s="8" t="n">
+        <v>77.646045</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>4.309017740013639</v>
+      </c>
+      <c r="G19" s="8" t="n">
+        <v>84.213482</v>
+      </c>
+      <c r="H19" s="9" t="n">
+        <v>4.651056632163205</v>
+      </c>
+      <c r="I19" s="8" t="n">
+        <v>44.058766</v>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>9.077729101298646</v>
+      </c>
+      <c r="K19" s="9" t="n">
+        <v>37.31910443993212</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="n"/>
-      <c r="C20" s="12" t="n"/>
-      <c r="D20" s="13" t="n"/>
-      <c r="E20" s="12" t="n"/>
-      <c r="F20" s="13" t="n"/>
-      <c r="G20" s="12" t="n"/>
-      <c r="H20" s="13" t="n"/>
-      <c r="I20" s="12" t="n"/>
-      <c r="J20" s="13" t="n"/>
-      <c r="K20" s="13" t="n"/>
+      <c r="A20" s="11" t="inlineStr">
+        <is>
+          <t>723</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>CIVIL ENGINEERING AND CONTRACTORS' PLANT AND EQUIPMENT</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>82.206917</v>
+      </c>
+      <c r="D20" s="9" t="n">
+        <v>7.826268685683992</v>
+      </c>
+      <c r="E20" s="8" t="n">
+        <v>91.075373</v>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>5.054287026922739</v>
+      </c>
+      <c r="G20" s="8" t="n">
+        <v>12.991226</v>
+      </c>
+      <c r="H20" s="9" t="n">
+        <v>0.717497084935059</v>
+      </c>
+      <c r="I20" s="8" t="n">
+        <v>37.906387</v>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>7.810112348470873</v>
+      </c>
+      <c r="K20" s="9" t="n">
+        <v>661.7976238732469</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="n"/>
-      <c r="C21" s="12" t="n"/>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="12" t="n"/>
-      <c r="F21" s="13" t="n"/>
-      <c r="G21" s="12" t="n"/>
-      <c r="H21" s="13" t="n"/>
-      <c r="I21" s="12" t="n"/>
-      <c r="J21" s="13" t="n"/>
-      <c r="K21" s="13" t="n"/>
+      <c r="A21" s="11" t="inlineStr">
+        <is>
+          <t>751</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>OFFICE MACHINES</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>25.21872</v>
+      </c>
+      <c r="D21" s="9" t="n">
+        <v>2.400874352568563</v>
+      </c>
+      <c r="E21" s="8" t="n">
+        <v>18.448502</v>
+      </c>
+      <c r="F21" s="9" t="n">
+        <v>1.023811610683804</v>
+      </c>
+      <c r="G21" s="8" t="n">
+        <v>4.609742</v>
+      </c>
+      <c r="H21" s="9" t="n">
+        <v>0.2545930959328018</v>
+      </c>
+      <c r="I21" s="8" t="n">
+        <v>32.457036</v>
+      </c>
+      <c r="J21" s="9" t="n">
+        <v>6.687345266072539</v>
+      </c>
+      <c r="K21" s="9" t="n">
+        <v>664.9114438703812</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="n"/>
-      <c r="C22" s="12" t="n"/>
-      <c r="D22" s="13" t="n"/>
-      <c r="E22" s="12" t="n"/>
-      <c r="F22" s="13" t="n"/>
-      <c r="G22" s="12" t="n"/>
-      <c r="H22" s="13" t="n"/>
-      <c r="I22" s="12" t="n"/>
-      <c r="J22" s="13" t="n"/>
-      <c r="K22" s="13" t="n"/>
+      <c r="A22" s="11" t="inlineStr">
+        <is>
+          <t>792</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>AIRCRAFT AND ASSOCIATED EQUIPMENT; SPACECRAFT (INCLUDING SATELLITES) AND SPACECRAFT LAUNCH VEHICLES; AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>8.117799</v>
+      </c>
+      <c r="D22" s="9" t="n">
+        <v>0.772831270516772</v>
+      </c>
+      <c r="E22" s="8" t="n">
+        <v>23.517471</v>
+      </c>
+      <c r="F22" s="9" t="n">
+        <v>1.305117340352059</v>
+      </c>
+      <c r="G22" s="8" t="n">
+        <v>47.394722</v>
+      </c>
+      <c r="H22" s="9" t="n">
+        <v>2.617580117250482</v>
+      </c>
+      <c r="I22" s="8" t="n">
+        <v>21.043329</v>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>4.335701096383446</v>
+      </c>
+      <c r="K22" s="9" t="n">
+        <v>-23.59042274681509</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="n"/>
-      <c r="C23" s="12" t="n"/>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="12" t="n"/>
-      <c r="F23" s="13" t="n"/>
-      <c r="G23" s="12" t="n"/>
-      <c r="H23" s="13" t="n"/>
-      <c r="I23" s="12" t="n"/>
-      <c r="J23" s="13" t="n"/>
-      <c r="K23" s="13" t="n"/>
+      <c r="A23" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>18.715241</v>
+      </c>
+      <c r="D23" s="9" t="n">
+        <v>1.781729688066628</v>
+      </c>
+      <c r="E23" s="8" t="n">
+        <v>31.266631</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>1.735162011786439</v>
+      </c>
+      <c r="G23" s="8" t="n">
+        <v>17.450077</v>
+      </c>
+      <c r="H23" s="9" t="n">
+        <v>0.9637565676551483</v>
+      </c>
+      <c r="I23" s="8" t="n">
+        <v>18.98956</v>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>3.912549013126167</v>
+      </c>
+      <c r="K23" s="9" t="n">
+        <v>45.93229844776388</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="n"/>
-      <c r="C24" s="12" t="n"/>
-      <c r="D24" s="13" t="n"/>
-      <c r="E24" s="12" t="n"/>
-      <c r="F24" s="13" t="n"/>
-      <c r="G24" s="12" t="n"/>
-      <c r="H24" s="13" t="n"/>
-      <c r="I24" s="12" t="n"/>
-      <c r="J24" s="13" t="n"/>
-      <c r="K24" s="13" t="n"/>
+      <c r="A24" s="11" t="inlineStr">
+        <is>
+          <t>759</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>PARTS AND ACCESSORIES (OTHER THAN COVERS, CARRYING CASES AND THE LIKE) SUITABLE FOR USE SOLELY WITH MACHINES FALLING WITHIN GROUPS 751 AND 752</t>
+        </is>
+      </c>
+      <c r="C24" s="8" t="n">
+        <v>24.441874</v>
+      </c>
+      <c r="D24" s="9" t="n">
+        <v>2.326917005118119</v>
+      </c>
+      <c r="E24" s="8" t="n">
+        <v>19.869848</v>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>1.102690130880131</v>
+      </c>
+      <c r="G24" s="8" t="n">
+        <v>30.119747</v>
+      </c>
+      <c r="H24" s="9" t="n">
+        <v>1.663494320819412</v>
+      </c>
+      <c r="I24" s="8" t="n">
+        <v>18.629797</v>
+      </c>
+      <c r="J24" s="9" t="n">
+        <v>3.838424579984519</v>
+      </c>
+      <c r="K24" s="9" t="n">
+        <v>99.28616692896135</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="n"/>
-      <c r="C25" s="12" t="n"/>
-      <c r="D25" s="13" t="n"/>
-      <c r="E25" s="12" t="n"/>
-      <c r="F25" s="13" t="n"/>
-      <c r="G25" s="12" t="n"/>
-      <c r="H25" s="13" t="n"/>
-      <c r="I25" s="12" t="n"/>
-      <c r="J25" s="13" t="n"/>
-      <c r="K25" s="13" t="n"/>
+      <c r="A25" s="11" t="inlineStr">
+        <is>
+          <t>874</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>MEASURING, CHECKING, ANALYSING AND CONTROLLING INSTRUMENTS AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C25" s="8" t="n">
+        <v>37.691703</v>
+      </c>
+      <c r="D25" s="9" t="n">
+        <v>3.588328156120991</v>
+      </c>
+      <c r="E25" s="8" t="n">
+        <v>51.88966</v>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>2.879650411856472</v>
+      </c>
+      <c r="G25" s="8" t="n">
+        <v>60.948322</v>
+      </c>
+      <c r="H25" s="9" t="n">
+        <v>3.366136757738133</v>
+      </c>
+      <c r="I25" s="8" t="n">
+        <v>18.492148</v>
+      </c>
+      <c r="J25" s="9" t="n">
+        <v>3.810063814431878</v>
+      </c>
+      <c r="K25" s="9" t="n">
+        <v>-58.86589930042558</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="n"/>
-      <c r="C26" s="12" t="n"/>
-      <c r="D26" s="13" t="n"/>
-      <c r="E26" s="12" t="n"/>
-      <c r="F26" s="13" t="n"/>
-      <c r="G26" s="12" t="n"/>
-      <c r="H26" s="13" t="n"/>
-      <c r="I26" s="12" t="n"/>
-      <c r="J26" s="13" t="n"/>
-      <c r="K26" s="13" t="n"/>
+      <c r="A26" s="11" t="inlineStr">
+        <is>
+          <t>747</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>TAPS, COCKS, VALVES AND SIMILAR APPLIANCES, FOR PIPES, BOILER SHELLS, TANKS, VATS AND THE LIKE</t>
+        </is>
+      </c>
+      <c r="C26" s="8" t="n">
+        <v>5.13142</v>
+      </c>
+      <c r="D26" s="9" t="n">
+        <v>0.4885218072232602</v>
+      </c>
+      <c r="E26" s="8" t="n">
+        <v>6.867947</v>
+      </c>
+      <c r="F26" s="9" t="n">
+        <v>0.3811411831790461</v>
+      </c>
+      <c r="G26" s="8" t="n">
+        <v>44.752437</v>
+      </c>
+      <c r="H26" s="9" t="n">
+        <v>2.471648410337861</v>
+      </c>
+      <c r="I26" s="8" t="n">
+        <v>17.615667</v>
+      </c>
+      <c r="J26" s="9" t="n">
+        <v>3.62947643528387</v>
+      </c>
+      <c r="K26" s="9" t="n">
+        <v>-59.30420283763833</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="n"/>
-      <c r="C27" s="12" t="n"/>
-      <c r="D27" s="13" t="n"/>
-      <c r="E27" s="12" t="n"/>
-      <c r="F27" s="13" t="n"/>
-      <c r="G27" s="12" t="n"/>
-      <c r="H27" s="13" t="n"/>
-      <c r="I27" s="12" t="n"/>
-      <c r="J27" s="13" t="n"/>
-      <c r="K27" s="13" t="n"/>
+      <c r="A27" s="11" t="inlineStr">
+        <is>
+          <t>898</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>MUSICAL INSTRUMENTS AND PARTS AND ACCESSORIES THEREOF; RECORDS, TAPES AND OTHER SOUND OR SIMILAR RECORDINGS (EXCLUDING GOODS OF GROUPS 763 AND 883)</t>
+        </is>
+      </c>
+      <c r="C27" s="8" t="n">
+        <v>7.465854</v>
+      </c>
+      <c r="D27" s="9" t="n">
+        <v>0.7107647568402131</v>
+      </c>
+      <c r="E27" s="8" t="n">
+        <v>16.267641</v>
+      </c>
+      <c r="F27" s="9" t="n">
+        <v>0.9027833118502457</v>
+      </c>
+      <c r="G27" s="8" t="n">
+        <v>13.71537</v>
+      </c>
+      <c r="H27" s="9" t="n">
+        <v>0.7574910938972012</v>
+      </c>
+      <c r="I27" s="8" t="n">
+        <v>13.617759</v>
+      </c>
+      <c r="J27" s="9" t="n">
+        <v>2.805760087987293</v>
+      </c>
+      <c r="K27" s="9" t="n">
+        <v>43.0709035090604</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="n"/>
-      <c r="C28" s="12" t="n"/>
-      <c r="D28" s="13" t="n"/>
-      <c r="E28" s="12" t="n"/>
-      <c r="F28" s="13" t="n"/>
-      <c r="G28" s="12" t="n"/>
-      <c r="H28" s="13" t="n"/>
-      <c r="I28" s="12" t="n"/>
-      <c r="J28" s="13" t="n"/>
-      <c r="K28" s="13" t="n"/>
+      <c r="A28" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C28" s="8" t="n">
+        <v>477.125994</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>45.42338238968441</v>
+      </c>
+      <c r="E28" s="8" t="n">
+        <v>512.879252</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>28.4625674798108</v>
+      </c>
+      <c r="G28" s="8" t="n">
+        <v>375.870378</v>
+      </c>
+      <c r="H28" s="9" t="n">
+        <v>20.75908005360224</v>
+      </c>
+      <c r="I28" s="8" t="n">
+        <v>64.317987</v>
+      </c>
+      <c r="J28" s="9" t="n">
+        <v>13.25187505993354</v>
+      </c>
+      <c r="K28" s="9" t="n">
+        <v>-77.26510810452471</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="n"/>
@@ -973,136 +1270,559 @@
       <c r="K30" s="13" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="n"/>
-      <c r="C31" s="12" t="n"/>
-      <c r="D31" s="13" t="n"/>
-      <c r="E31" s="12" t="n"/>
-      <c r="F31" s="13" t="n"/>
-      <c r="G31" s="12" t="n"/>
-      <c r="H31" s="13" t="n"/>
-      <c r="I31" s="12" t="n"/>
-      <c r="J31" s="13" t="n"/>
-      <c r="K31" s="13" t="n"/>
+      <c r="A31" s="11" t="inlineStr">
+        <is>
+          <t>598</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>MISCELLANEOUS CHEMICAL PRODUCTS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C31" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D31" s="9" t="n">
+        <v>6.086717591172911</v>
+      </c>
+      <c r="E31" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F31" s="9" t="n">
+        <v>4.130884300216853</v>
+      </c>
+      <c r="G31" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H31" s="9" t="n">
+        <v>4.099557612947494</v>
+      </c>
+      <c r="I31" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J31" s="9" t="n">
+        <v>48.71796040917661</v>
+      </c>
+      <c r="K31" s="9" t="n">
+        <v>919.0024319298079</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="n"/>
-      <c r="C32" s="12" t="n"/>
-      <c r="D32" s="13" t="n"/>
-      <c r="E32" s="12" t="n"/>
-      <c r="F32" s="13" t="n"/>
-      <c r="G32" s="12" t="n"/>
-      <c r="H32" s="13" t="n"/>
-      <c r="I32" s="12" t="n"/>
-      <c r="J32" s="13" t="n"/>
-      <c r="K32" s="13" t="n"/>
+      <c r="A32" s="11" t="inlineStr">
+        <is>
+          <t>724</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>TEXTILE AND LEATHER MACHINERY, AND PARTS THEREOF, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C32" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D32" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E32" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F32" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H32" s="9" t="n">
+        <v>23.85136733373343</v>
+      </c>
+      <c r="I32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J32" s="9" t="n">
+        <v>43.18605133629858</v>
+      </c>
+      <c r="K32" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="n"/>
-      <c r="C33" s="12" t="n"/>
-      <c r="D33" s="13" t="n"/>
-      <c r="E33" s="12" t="n"/>
-      <c r="F33" s="13" t="n"/>
-      <c r="G33" s="12" t="n"/>
-      <c r="H33" s="13" t="n"/>
-      <c r="I33" s="12" t="n"/>
-      <c r="J33" s="13" t="n"/>
-      <c r="K33" s="13" t="n"/>
+      <c r="A33" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D33" s="9" t="n">
+        <v>4.536829882108486</v>
+      </c>
+      <c r="E33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F33" s="9" t="n">
+        <v>0.8182881761582179</v>
+      </c>
+      <c r="G33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H33" s="9" t="n">
+        <v>4.151361664610795</v>
+      </c>
+      <c r="I33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J33" s="9" t="n">
+        <v>5.643846734315618</v>
+      </c>
+      <c r="K33" s="9" t="n">
+        <v>33.77283043337296</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="n"/>
-      <c r="C34" s="12" t="n"/>
-      <c r="D34" s="13" t="n"/>
-      <c r="E34" s="12" t="n"/>
-      <c r="F34" s="13" t="n"/>
-      <c r="G34" s="12" t="n"/>
-      <c r="H34" s="13" t="n"/>
-      <c r="I34" s="12" t="n"/>
-      <c r="J34" s="13" t="n"/>
-      <c r="K34" s="13" t="n"/>
+      <c r="A34" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H34" s="9" t="n">
+        <v>14.3927294479643</v>
+      </c>
+      <c r="I34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J34" s="9" t="n">
+        <v>2.452141520209194</v>
+      </c>
+      <c r="K34" s="9" t="n">
+        <v>-85.39083191850594</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="11" t="n"/>
-      <c r="C35" s="12" t="n"/>
-      <c r="D35" s="13" t="n"/>
-      <c r="E35" s="12" t="n"/>
-      <c r="F35" s="13" t="n"/>
-      <c r="G35" s="12" t="n"/>
-      <c r="H35" s="13" t="n"/>
-      <c r="I35" s="12" t="n"/>
-      <c r="J35" s="13" t="n"/>
-      <c r="K35" s="13" t="n"/>
+      <c r="A35" s="11" t="inlineStr">
+        <is>
+          <t>512</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>ALCOHOLS, PHENOLS, PHENOL-ALCOHOLS, AND THEIR HALOGENATED, SULPHONATED, NITRATED OR NITROSATED DERIVATIVES</t>
+        </is>
+      </c>
+      <c r="C35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H35" s="9" t="n">
+        <v>26.81260421900016</v>
+      </c>
+      <c r="I35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K35" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="11" t="n"/>
-      <c r="C36" s="12" t="n"/>
-      <c r="D36" s="13" t="n"/>
-      <c r="E36" s="12" t="n"/>
-      <c r="F36" s="13" t="n"/>
-      <c r="G36" s="12" t="n"/>
-      <c r="H36" s="13" t="n"/>
-      <c r="I36" s="12" t="n"/>
-      <c r="J36" s="13" t="n"/>
-      <c r="K36" s="13" t="n"/>
+      <c r="A36" s="11" t="inlineStr">
+        <is>
+          <t>682</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>COPPER</t>
+        </is>
+      </c>
+      <c r="C36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D36" s="9" t="n">
+        <v>1.944393226324164</v>
+      </c>
+      <c r="E36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F36" s="9" t="n">
+        <v>5.55045330803837</v>
+      </c>
+      <c r="G36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H36" s="9" t="n">
+        <v>25.24382114504548</v>
+      </c>
+      <c r="I36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K36" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="n"/>
-      <c r="C37" s="12" t="n"/>
-      <c r="D37" s="13" t="n"/>
-      <c r="E37" s="12" t="n"/>
-      <c r="F37" s="13" t="n"/>
-      <c r="G37" s="12" t="n"/>
-      <c r="H37" s="13" t="n"/>
-      <c r="I37" s="12" t="n"/>
-      <c r="J37" s="13" t="n"/>
-      <c r="K37" s="13" t="n"/>
+      <c r="A37" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C37" s="8" t="n">
+        <v>1.412592</v>
+      </c>
+      <c r="D37" s="9" t="n">
+        <v>46.42800446863035</v>
+      </c>
+      <c r="E37" s="8" t="n">
+        <v>1.288746</v>
+      </c>
+      <c r="F37" s="9" t="n">
+        <v>22.08190660785222</v>
+      </c>
+      <c r="G37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H37" s="9" t="n">
+        <v>1.448558576698342</v>
+      </c>
+      <c r="I37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K37" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="n"/>
-      <c r="C38" s="12" t="n"/>
-      <c r="D38" s="13" t="n"/>
-      <c r="E38" s="12" t="n"/>
-      <c r="F38" s="13" t="n"/>
-      <c r="G38" s="12" t="n"/>
-      <c r="H38" s="13" t="n"/>
-      <c r="I38" s="12" t="n"/>
-      <c r="J38" s="13" t="n"/>
-      <c r="K38" s="13" t="n"/>
+      <c r="A38" s="11" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>TOBACCO, MANUFACTURED</t>
+        </is>
+      </c>
+      <c r="C38" s="8" t="n">
+        <v>0.915052</v>
+      </c>
+      <c r="D38" s="9" t="n">
+        <v>30.0752364058618</v>
+      </c>
+      <c r="E38" s="8" t="n">
+        <v>3.755052</v>
+      </c>
+      <c r="F38" s="9" t="n">
+        <v>64.34061294594025</v>
+      </c>
+      <c r="G38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="11" t="n"/>
-      <c r="C39" s="12" t="n"/>
-      <c r="D39" s="13" t="n"/>
-      <c r="E39" s="12" t="n"/>
-      <c r="F39" s="13" t="n"/>
-      <c r="G39" s="12" t="n"/>
-      <c r="H39" s="13" t="n"/>
-      <c r="I39" s="12" t="n"/>
-      <c r="J39" s="13" t="n"/>
-      <c r="K39" s="13" t="n"/>
+      <c r="A39" s="11" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>ALCOHOLIC BEVERAGES</t>
+        </is>
+      </c>
+      <c r="C39" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D39" s="9" t="n">
+        <v>7.698625787704562</v>
+      </c>
+      <c r="E39" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F39" s="9" t="n">
+        <v>2.675641443896448</v>
+      </c>
+      <c r="G39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="11" t="n"/>
-      <c r="C40" s="12" t="n"/>
-      <c r="D40" s="13" t="n"/>
-      <c r="E40" s="12" t="n"/>
-      <c r="F40" s="13" t="n"/>
-      <c r="G40" s="12" t="n"/>
-      <c r="H40" s="13" t="n"/>
-      <c r="I40" s="12" t="n"/>
-      <c r="J40" s="13" t="n"/>
-      <c r="K40" s="13" t="n"/>
+      <c r="A40" s="11" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>PRINTED MATTER</t>
+        </is>
+      </c>
+      <c r="C40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E40" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F40" s="9" t="n">
+        <v>0.2056129596477713</v>
+      </c>
+      <c r="G40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="11" t="n"/>
-      <c r="C41" s="12" t="n"/>
-      <c r="D41" s="13" t="n"/>
-      <c r="E41" s="12" t="n"/>
-      <c r="F41" s="13" t="n"/>
-      <c r="G41" s="12" t="n"/>
-      <c r="H41" s="13" t="n"/>
-      <c r="I41" s="12" t="n"/>
-      <c r="J41" s="13" t="n"/>
-      <c r="K41" s="13" t="n"/>
+      <c r="A41" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C41" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D41" s="9" t="n">
+        <v>3.230192638197718</v>
+      </c>
+      <c r="E41" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F41" s="9" t="n">
+        <v>0.1966002582498773</v>
+      </c>
+      <c r="G41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="11" t="n"/>
@@ -1134,136 +1854,433 @@
       <c r="K43" s="13" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="11" t="n"/>
-      <c r="C44" s="12" t="n"/>
-      <c r="D44" s="13" t="n"/>
-      <c r="E44" s="12" t="n"/>
-      <c r="F44" s="13" t="n"/>
-      <c r="G44" s="12" t="n"/>
-      <c r="H44" s="13" t="n"/>
-      <c r="I44" s="12" t="n"/>
-      <c r="J44" s="13" t="n"/>
-      <c r="K44" s="13" t="n"/>
+      <c r="A44" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C44" s="8" t="n">
+        <v>291.989107</v>
+      </c>
+      <c r="D44" s="9" t="n">
+        <v>27.87871996570622</v>
+      </c>
+      <c r="E44" s="8" t="n">
+        <v>952.214664</v>
+      </c>
+      <c r="F44" s="9" t="n">
+        <v>53.01548049458835</v>
+      </c>
+      <c r="G44" s="8" t="n">
+        <v>1118.565686</v>
+      </c>
+      <c r="H44" s="9" t="n">
+        <v>61.7951243428469</v>
+      </c>
+      <c r="I44" s="8" t="n">
+        <v>198.22165</v>
+      </c>
+      <c r="J44" s="9" t="n">
+        <v>40.87790676190036</v>
+      </c>
+      <c r="K44" s="9" t="n">
+        <v>-81.63862229017795</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="11" t="n"/>
-      <c r="C45" s="12" t="n"/>
-      <c r="D45" s="13" t="n"/>
-      <c r="E45" s="12" t="n"/>
-      <c r="F45" s="13" t="n"/>
-      <c r="G45" s="12" t="n"/>
-      <c r="H45" s="13" t="n"/>
-      <c r="I45" s="12" t="n"/>
-      <c r="J45" s="13" t="n"/>
-      <c r="K45" s="13" t="n"/>
+      <c r="A45" s="11" t="inlineStr">
+        <is>
+          <t>598</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>MISCELLANEOUS CHEMICAL PRODUCTS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C45" s="8" t="n">
+        <v>72.107506</v>
+      </c>
+      <c r="D45" s="9" t="n">
+        <v>6.884725899036639</v>
+      </c>
+      <c r="E45" s="8" t="n">
+        <v>77.40495799999999</v>
+      </c>
+      <c r="F45" s="9" t="n">
+        <v>4.309596560711473</v>
+      </c>
+      <c r="G45" s="8" t="n">
+        <v>84.192511</v>
+      </c>
+      <c r="H45" s="9" t="n">
+        <v>4.651212486757354</v>
+      </c>
+      <c r="I45" s="8" t="n">
+        <v>43.845071</v>
+      </c>
+      <c r="J45" s="9" t="n">
+        <v>9.041871684081437</v>
+      </c>
+      <c r="K45" s="9" t="n">
+        <v>36.74245170881629</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="11" t="n"/>
-      <c r="C46" s="12" t="n"/>
-      <c r="D46" s="13" t="n"/>
-      <c r="E46" s="12" t="n"/>
-      <c r="F46" s="13" t="n"/>
-      <c r="G46" s="12" t="n"/>
-      <c r="H46" s="13" t="n"/>
-      <c r="I46" s="12" t="n"/>
-      <c r="J46" s="13" t="n"/>
-      <c r="K46" s="13" t="n"/>
+      <c r="A46" s="11" t="inlineStr">
+        <is>
+          <t>723</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>CIVIL ENGINEERING AND CONTRACTORS' PLANT AND EQUIPMENT</t>
+        </is>
+      </c>
+      <c r="C46" s="8" t="n">
+        <v>82.206917</v>
+      </c>
+      <c r="D46" s="9" t="n">
+        <v>7.849003827005962</v>
+      </c>
+      <c r="E46" s="8" t="n">
+        <v>91.075373</v>
+      </c>
+      <c r="F46" s="9" t="n">
+        <v>5.070710254068151</v>
+      </c>
+      <c r="G46" s="8" t="n">
+        <v>12.991226</v>
+      </c>
+      <c r="H46" s="9" t="n">
+        <v>0.7176998508749404</v>
+      </c>
+      <c r="I46" s="8" t="n">
+        <v>37.906387</v>
+      </c>
+      <c r="J46" s="9" t="n">
+        <v>7.817177152276312</v>
+      </c>
+      <c r="K46" s="9" t="n">
+        <v>661.7976238732469</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="11" t="n"/>
-      <c r="C47" s="12" t="n"/>
-      <c r="D47" s="13" t="n"/>
-      <c r="E47" s="12" t="n"/>
-      <c r="F47" s="13" t="n"/>
-      <c r="G47" s="12" t="n"/>
-      <c r="H47" s="13" t="n"/>
-      <c r="I47" s="12" t="n"/>
-      <c r="J47" s="13" t="n"/>
-      <c r="K47" s="13" t="n"/>
+      <c r="A47" s="11" t="inlineStr">
+        <is>
+          <t>751</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>OFFICE MACHINES</t>
+        </is>
+      </c>
+      <c r="C47" s="8" t="n">
+        <v>25.21872</v>
+      </c>
+      <c r="D47" s="9" t="n">
+        <v>2.407848840654027</v>
+      </c>
+      <c r="E47" s="8" t="n">
+        <v>18.448502</v>
+      </c>
+      <c r="F47" s="9" t="n">
+        <v>1.027138349063877</v>
+      </c>
+      <c r="G47" s="8" t="n">
+        <v>4.609742</v>
+      </c>
+      <c r="H47" s="9" t="n">
+        <v>0.2546650443901099</v>
+      </c>
+      <c r="I47" s="8" t="n">
+        <v>32.457036</v>
+      </c>
+      <c r="J47" s="9" t="n">
+        <v>6.693394446951902</v>
+      </c>
+      <c r="K47" s="9" t="n">
+        <v>664.9114438703812</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="11" t="n"/>
-      <c r="C48" s="12" t="n"/>
-      <c r="D48" s="13" t="n"/>
-      <c r="E48" s="12" t="n"/>
-      <c r="F48" s="13" t="n"/>
-      <c r="G48" s="12" t="n"/>
-      <c r="H48" s="13" t="n"/>
-      <c r="I48" s="12" t="n"/>
-      <c r="J48" s="13" t="n"/>
-      <c r="K48" s="13" t="n"/>
+      <c r="A48" s="11" t="inlineStr">
+        <is>
+          <t>792</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>AIRCRAFT AND ASSOCIATED EQUIPMENT; SPACECRAFT (INCLUDING SATELLITES) AND SPACECRAFT LAUNCH VEHICLES; AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C48" s="8" t="n">
+        <v>8.117799</v>
+      </c>
+      <c r="D48" s="9" t="n">
+        <v>0.7750763286484175</v>
+      </c>
+      <c r="E48" s="8" t="n">
+        <v>23.517471</v>
+      </c>
+      <c r="F48" s="9" t="n">
+        <v>1.309358143934808</v>
+      </c>
+      <c r="G48" s="8" t="n">
+        <v>47.394722</v>
+      </c>
+      <c r="H48" s="9" t="n">
+        <v>2.618319850001783</v>
+      </c>
+      <c r="I48" s="8" t="n">
+        <v>21.043329</v>
+      </c>
+      <c r="J48" s="9" t="n">
+        <v>4.339623047341165</v>
+      </c>
+      <c r="K48" s="9" t="n">
+        <v>-23.59042274681509</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="11" t="n"/>
-      <c r="C49" s="12" t="n"/>
-      <c r="D49" s="13" t="n"/>
-      <c r="E49" s="12" t="n"/>
-      <c r="F49" s="13" t="n"/>
-      <c r="G49" s="12" t="n"/>
-      <c r="H49" s="13" t="n"/>
-      <c r="I49" s="12" t="n"/>
-      <c r="J49" s="13" t="n"/>
-      <c r="K49" s="13" t="n"/>
+      <c r="A49" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C49" s="8" t="n">
+        <v>17.302649</v>
+      </c>
+      <c r="D49" s="9" t="n">
+        <v>1.652033225115849</v>
+      </c>
+      <c r="E49" s="8" t="n">
+        <v>29.977885</v>
+      </c>
+      <c r="F49" s="9" t="n">
+        <v>1.669047996814417</v>
+      </c>
+      <c r="G49" s="8" t="n">
+        <v>17.442667</v>
+      </c>
+      <c r="H49" s="9" t="n">
+        <v>0.9636195617535439</v>
+      </c>
+      <c r="I49" s="8" t="n">
+        <v>18.98956</v>
+      </c>
+      <c r="J49" s="9" t="n">
+        <v>3.916088192836214</v>
+      </c>
+      <c r="K49" s="9" t="n">
+        <v>46.01544677763585</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="11" t="n"/>
-      <c r="C50" s="12" t="n"/>
-      <c r="D50" s="13" t="n"/>
-      <c r="E50" s="12" t="n"/>
-      <c r="F50" s="13" t="n"/>
-      <c r="G50" s="12" t="n"/>
-      <c r="H50" s="13" t="n"/>
-      <c r="I50" s="12" t="n"/>
-      <c r="J50" s="13" t="n"/>
-      <c r="K50" s="13" t="n"/>
+      <c r="A50" s="11" t="inlineStr">
+        <is>
+          <t>759</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>PARTS AND ACCESSORIES (OTHER THAN COVERS, CARRYING CASES AND THE LIKE) SUITABLE FOR USE SOLELY WITH MACHINES FALLING WITHIN GROUPS 751 AND 752</t>
+        </is>
+      </c>
+      <c r="C50" s="8" t="n">
+        <v>24.441874</v>
+      </c>
+      <c r="D50" s="9" t="n">
+        <v>2.333676648708253</v>
+      </c>
+      <c r="E50" s="8" t="n">
+        <v>19.869848</v>
+      </c>
+      <c r="F50" s="9" t="n">
+        <v>1.106273174421976</v>
+      </c>
+      <c r="G50" s="8" t="n">
+        <v>30.119747</v>
+      </c>
+      <c r="H50" s="9" t="n">
+        <v>1.663964427244275</v>
+      </c>
+      <c r="I50" s="8" t="n">
+        <v>18.629797</v>
+      </c>
+      <c r="J50" s="9" t="n">
+        <v>3.84189670885663</v>
+      </c>
+      <c r="K50" s="9" t="n">
+        <v>99.28616692896135</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="11" t="n"/>
-      <c r="C51" s="12" t="n"/>
-      <c r="D51" s="13" t="n"/>
-      <c r="E51" s="12" t="n"/>
-      <c r="F51" s="13" t="n"/>
-      <c r="G51" s="12" t="n"/>
-      <c r="H51" s="13" t="n"/>
-      <c r="I51" s="12" t="n"/>
-      <c r="J51" s="13" t="n"/>
-      <c r="K51" s="13" t="n"/>
+      <c r="A51" s="11" t="inlineStr">
+        <is>
+          <t>874</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>MEASURING, CHECKING, ANALYSING AND CONTROLLING INSTRUMENTS AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C51" s="8" t="n">
+        <v>37.691703</v>
+      </c>
+      <c r="D51" s="9" t="n">
+        <v>3.598752171832112</v>
+      </c>
+      <c r="E51" s="8" t="n">
+        <v>51.88966</v>
+      </c>
+      <c r="F51" s="9" t="n">
+        <v>2.889007449270726</v>
+      </c>
+      <c r="G51" s="8" t="n">
+        <v>60.948322</v>
+      </c>
+      <c r="H51" s="9" t="n">
+        <v>3.367088033914416</v>
+      </c>
+      <c r="I51" s="8" t="n">
+        <v>18.492148</v>
+      </c>
+      <c r="J51" s="9" t="n">
+        <v>3.813510288968244</v>
+      </c>
+      <c r="K51" s="9" t="n">
+        <v>-58.86589930042558</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="11" t="n"/>
-      <c r="C52" s="12" t="n"/>
-      <c r="D52" s="13" t="n"/>
-      <c r="E52" s="12" t="n"/>
-      <c r="F52" s="13" t="n"/>
-      <c r="G52" s="12" t="n"/>
-      <c r="H52" s="13" t="n"/>
-      <c r="I52" s="12" t="n"/>
-      <c r="J52" s="13" t="n"/>
-      <c r="K52" s="13" t="n"/>
+      <c r="A52" s="11" t="inlineStr">
+        <is>
+          <t>747</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>TAPS, COCKS, VALVES AND SIMILAR APPLIANCES, FOR PIPES, BOILER SHELLS, TANKS, VATS AND THE LIKE</t>
+        </is>
+      </c>
+      <c r="C52" s="8" t="n">
+        <v>5.13142</v>
+      </c>
+      <c r="D52" s="9" t="n">
+        <v>0.489940952511027</v>
+      </c>
+      <c r="E52" s="8" t="n">
+        <v>6.867947</v>
+      </c>
+      <c r="F52" s="9" t="n">
+        <v>0.3823796502847877</v>
+      </c>
+      <c r="G52" s="8" t="n">
+        <v>44.752437</v>
+      </c>
+      <c r="H52" s="9" t="n">
+        <v>2.472346902531767</v>
+      </c>
+      <c r="I52" s="8" t="n">
+        <v>17.615667</v>
+      </c>
+      <c r="J52" s="9" t="n">
+        <v>3.632759555652397</v>
+      </c>
+      <c r="K52" s="9" t="n">
+        <v>-59.30420283763833</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="11" t="n"/>
-      <c r="C53" s="12" t="n"/>
-      <c r="D53" s="13" t="n"/>
-      <c r="E53" s="12" t="n"/>
-      <c r="F53" s="13" t="n"/>
-      <c r="G53" s="12" t="n"/>
-      <c r="H53" s="13" t="n"/>
-      <c r="I53" s="12" t="n"/>
-      <c r="J53" s="13" t="n"/>
-      <c r="K53" s="13" t="n"/>
+      <c r="A53" s="11" t="inlineStr">
+        <is>
+          <t>898</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>MUSICAL INSTRUMENTS AND PARTS AND ACCESSORIES THEREOF; RECORDS, TAPES AND OTHER SOUND OR SIMILAR RECORDINGS (EXCLUDING GOODS OF GROUPS 763 AND 883)</t>
+        </is>
+      </c>
+      <c r="C53" s="8" t="n">
+        <v>7.465854</v>
+      </c>
+      <c r="D53" s="9" t="n">
+        <v>0.7128295130915537</v>
+      </c>
+      <c r="E53" s="8" t="n">
+        <v>16.267641</v>
+      </c>
+      <c r="F53" s="9" t="n">
+        <v>0.9057167850215607</v>
+      </c>
+      <c r="G53" s="8" t="n">
+        <v>13.71537</v>
+      </c>
+      <c r="H53" s="9" t="n">
+        <v>0.7577051622144539</v>
+      </c>
+      <c r="I53" s="8" t="n">
+        <v>13.617759</v>
+      </c>
+      <c r="J53" s="9" t="n">
+        <v>2.808298098154412</v>
+      </c>
+      <c r="K53" s="9" t="n">
+        <v>43.0709035090604</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="11" t="n"/>
-      <c r="C54" s="12" t="n"/>
-      <c r="D54" s="13" t="n"/>
-      <c r="E54" s="12" t="n"/>
-      <c r="F54" s="13" t="n"/>
-      <c r="G54" s="12" t="n"/>
-      <c r="H54" s="13" t="n"/>
-      <c r="I54" s="12" t="n"/>
-      <c r="J54" s="13" t="n"/>
-      <c r="K54" s="13" t="n"/>
+      <c r="A54" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C54" s="8" t="n">
+        <v>475.681234</v>
+      </c>
+      <c r="D54" s="9" t="n">
+        <v>45.41739262768994</v>
+      </c>
+      <c r="E54" s="8" t="n">
+        <v>508.572877</v>
+      </c>
+      <c r="F54" s="9" t="n">
+        <v>28.31529114181987</v>
+      </c>
+      <c r="G54" s="8" t="n">
+        <v>375.387216</v>
+      </c>
+      <c r="H54" s="9" t="n">
+        <v>20.73825433747046</v>
+      </c>
+      <c r="I54" s="8" t="n">
+        <v>64.093045</v>
+      </c>
+      <c r="J54" s="9" t="n">
+        <v>13.21747406298093</v>
+      </c>
+      <c r="K54" s="9" t="n">
+        <v>-77.31588044149106</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="11" t="n"/>
@@ -1295,136 +2312,499 @@
       <c r="K56" s="13" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="11" t="n"/>
-      <c r="C57" s="12" t="n"/>
-      <c r="D57" s="13" t="n"/>
-      <c r="E57" s="12" t="n"/>
-      <c r="F57" s="13" t="n"/>
-      <c r="G57" s="12" t="n"/>
-      <c r="H57" s="13" t="n"/>
-      <c r="I57" s="12" t="n"/>
-      <c r="J57" s="13" t="n"/>
-      <c r="K57" s="13" t="n"/>
+      <c r="A57" s="11" t="inlineStr">
+        <is>
+          <t>075</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>SPICES</t>
+        </is>
+      </c>
+      <c r="C57" s="8" t="n">
+        <v>55.943148</v>
+      </c>
+      <c r="D57" s="9" t="n">
+        <v>2.802907168846979</v>
+      </c>
+      <c r="E57" s="8" t="n">
+        <v>148.713725</v>
+      </c>
+      <c r="F57" s="9" t="n">
+        <v>10.70871451284379</v>
+      </c>
+      <c r="G57" s="8" t="n">
+        <v>704.466142</v>
+      </c>
+      <c r="H57" s="9" t="n">
+        <v>69.63055234294585</v>
+      </c>
+      <c r="I57" s="8" t="n">
+        <v>107.978689</v>
+      </c>
+      <c r="J57" s="9" t="n">
+        <v>65.99843610290065</v>
+      </c>
+      <c r="K57" s="9" t="n">
+        <v>-70.20021646308948</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="11" t="n"/>
-      <c r="C58" s="12" t="n"/>
-      <c r="D58" s="13" t="n"/>
-      <c r="E58" s="12" t="n"/>
-      <c r="F58" s="13" t="n"/>
-      <c r="G58" s="12" t="n"/>
-      <c r="H58" s="13" t="n"/>
-      <c r="I58" s="12" t="n"/>
-      <c r="J58" s="13" t="n"/>
-      <c r="K58" s="13" t="n"/>
+      <c r="A58" s="11" t="inlineStr">
+        <is>
+          <t>057</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>FRUIT AND NUTS (NOT INCLUDING OIL NUTS), FRESH OR DRIED</t>
+        </is>
+      </c>
+      <c r="C58" s="8" t="n">
+        <v>1883.36028</v>
+      </c>
+      <c r="D58" s="9" t="n">
+        <v>94.3615834835332</v>
+      </c>
+      <c r="E58" s="8" t="n">
+        <v>1160.743937</v>
+      </c>
+      <c r="F58" s="9" t="n">
+        <v>83.58391563285322</v>
+      </c>
+      <c r="G58" s="8" t="n">
+        <v>261.46892</v>
+      </c>
+      <c r="H58" s="9" t="n">
+        <v>25.84400333055825</v>
+      </c>
+      <c r="I58" s="8" t="n">
+        <v>37.93098</v>
+      </c>
+      <c r="J58" s="9" t="n">
+        <v>23.18406884760753</v>
+      </c>
+      <c r="K58" s="9" t="n">
+        <v>-83.4469425023434</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="11" t="n"/>
-      <c r="C59" s="12" t="n"/>
-      <c r="D59" s="13" t="n"/>
-      <c r="E59" s="12" t="n"/>
-      <c r="F59" s="13" t="n"/>
-      <c r="G59" s="12" t="n"/>
-      <c r="H59" s="13" t="n"/>
-      <c r="I59" s="12" t="n"/>
-      <c r="J59" s="13" t="n"/>
-      <c r="K59" s="13" t="n"/>
+      <c r="A59" s="11" t="inlineStr">
+        <is>
+          <t>723</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>CIVIL ENGINEERING AND CONTRACTORS' PLANT AND EQUIPMENT</t>
+        </is>
+      </c>
+      <c r="C59" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D59" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E59" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F59" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G59" s="8" t="n">
+        <v>1.41234</v>
+      </c>
+      <c r="H59" s="9" t="n">
+        <v>0.1395979287476333</v>
+      </c>
+      <c r="I59" s="8" t="n">
+        <v>3.9078</v>
+      </c>
+      <c r="J59" s="9" t="n">
+        <v>2.388514724446369</v>
+      </c>
+      <c r="K59" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="11" t="n"/>
-      <c r="C60" s="12" t="n"/>
-      <c r="D60" s="13" t="n"/>
-      <c r="E60" s="12" t="n"/>
-      <c r="F60" s="13" t="n"/>
-      <c r="G60" s="12" t="n"/>
-      <c r="H60" s="13" t="n"/>
-      <c r="I60" s="12" t="n"/>
-      <c r="J60" s="13" t="n"/>
-      <c r="K60" s="13" t="n"/>
+      <c r="A60" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C60" s="8" t="n">
+        <v>7.184016</v>
+      </c>
+      <c r="D60" s="9" t="n">
+        <v>0.3599391644444356</v>
+      </c>
+      <c r="E60" s="8" t="n">
+        <v>24.194197</v>
+      </c>
+      <c r="F60" s="9" t="n">
+        <v>1.742197961489443</v>
+      </c>
+      <c r="G60" s="8" t="n">
+        <v>9.627421999999999</v>
+      </c>
+      <c r="H60" s="9" t="n">
+        <v>0.9515896812236413</v>
+      </c>
+      <c r="I60" s="8" t="n">
+        <v>3.289819</v>
+      </c>
+      <c r="J60" s="9" t="n">
+        <v>2.010794084206824</v>
+      </c>
+      <c r="K60" s="9" t="n">
+        <v>-48.34444250616408</v>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="11" t="n"/>
-      <c r="C61" s="12" t="n"/>
-      <c r="D61" s="13" t="n"/>
-      <c r="E61" s="12" t="n"/>
-      <c r="F61" s="13" t="n"/>
-      <c r="G61" s="12" t="n"/>
-      <c r="H61" s="13" t="n"/>
-      <c r="I61" s="12" t="n"/>
-      <c r="J61" s="13" t="n"/>
-      <c r="K61" s="13" t="n"/>
+      <c r="A61" s="11" t="inlineStr">
+        <is>
+          <t>541</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>MEDICINAL AND PHARMACEUTICAL PRODUCTS, OTHER THAN MEDICAMENTS OF GROUP 542</t>
+        </is>
+      </c>
+      <c r="C61" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D61" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E61" s="8" t="n">
+        <v>1.790618</v>
+      </c>
+      <c r="F61" s="9" t="n">
+        <v>0.1289404657408677</v>
+      </c>
+      <c r="G61" s="8" t="n">
+        <v>4.853214</v>
+      </c>
+      <c r="H61" s="9" t="n">
+        <v>0.4796993798724221</v>
+      </c>
+      <c r="I61" s="8" t="n">
+        <v>3.047478</v>
+      </c>
+      <c r="J61" s="9" t="n">
+        <v>1.862671087421662</v>
+      </c>
+      <c r="K61" s="9" t="n">
+        <v>-31.48060960326143</v>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="11" t="n"/>
-      <c r="C62" s="12" t="n"/>
-      <c r="D62" s="13" t="n"/>
-      <c r="E62" s="12" t="n"/>
-      <c r="F62" s="13" t="n"/>
-      <c r="G62" s="12" t="n"/>
-      <c r="H62" s="13" t="n"/>
-      <c r="I62" s="12" t="n"/>
-      <c r="J62" s="13" t="n"/>
-      <c r="K62" s="13" t="n"/>
+      <c r="A62" s="11" t="inlineStr">
+        <is>
+          <t>579</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>WASTE, PARINGS AND SCRAP, OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C62" s="8" t="n">
+        <v>11.796794</v>
+      </c>
+      <c r="D62" s="9" t="n">
+        <v>0.5910521601682306</v>
+      </c>
+      <c r="E62" s="8" t="n">
+        <v>6.556646</v>
+      </c>
+      <c r="F62" s="9" t="n">
+        <v>0.4721369878656403</v>
+      </c>
+      <c r="G62" s="8" t="n">
+        <v>4.906368</v>
+      </c>
+      <c r="H62" s="9" t="n">
+        <v>0.4849532056542109</v>
+      </c>
+      <c r="I62" s="8" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="J62" s="9" t="n">
+        <v>1.308004890300227</v>
+      </c>
+      <c r="K62" s="9" t="n">
+        <v>-21.79414464721119</v>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="11" t="n"/>
-      <c r="C63" s="12" t="n"/>
-      <c r="D63" s="13" t="n"/>
-      <c r="E63" s="12" t="n"/>
-      <c r="F63" s="13" t="n"/>
-      <c r="G63" s="12" t="n"/>
-      <c r="H63" s="13" t="n"/>
-      <c r="I63" s="12" t="n"/>
-      <c r="J63" s="13" t="n"/>
-      <c r="K63" s="13" t="n"/>
+      <c r="A63" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C63" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D63" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E63" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F63" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G63" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H63" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I63" s="8" t="n">
+        <v>1.2128</v>
+      </c>
+      <c r="J63" s="9" t="n">
+        <v>0.7412842668019233</v>
+      </c>
+      <c r="K63" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="11" t="n"/>
-      <c r="C64" s="12" t="n"/>
-      <c r="D64" s="13" t="n"/>
-      <c r="E64" s="12" t="n"/>
-      <c r="F64" s="13" t="n"/>
-      <c r="G64" s="12" t="n"/>
-      <c r="H64" s="13" t="n"/>
-      <c r="I64" s="12" t="n"/>
-      <c r="J64" s="13" t="n"/>
-      <c r="K64" s="13" t="n"/>
+      <c r="A64" s="11" t="inlineStr">
+        <is>
+          <t>761</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>TELEVISION RECEIVERS (INCLUDING VIDEO MONITORS AND VIDEO PROJECTORS)</t>
+        </is>
+      </c>
+      <c r="C64" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D64" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E64" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F64" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G64" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H64" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I64" s="8" t="n">
+        <v>0.840394</v>
+      </c>
+      <c r="J64" s="9" t="n">
+        <v>0.5136632998967148</v>
+      </c>
+      <c r="K64" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="11" t="n"/>
-      <c r="C65" s="12" t="n"/>
-      <c r="D65" s="13" t="n"/>
-      <c r="E65" s="12" t="n"/>
-      <c r="F65" s="13" t="n"/>
-      <c r="G65" s="12" t="n"/>
-      <c r="H65" s="13" t="n"/>
-      <c r="I65" s="12" t="n"/>
-      <c r="J65" s="13" t="n"/>
-      <c r="K65" s="13" t="n"/>
+      <c r="A65" s="11" t="inlineStr">
+        <is>
+          <t>898</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>MUSICAL INSTRUMENTS AND PARTS AND ACCESSORIES THEREOF; RECORDS, TAPES AND OTHER SOUND OR SIMILAR RECORDINGS (EXCLUDING GOODS OF GROUPS 763 AND 883)</t>
+        </is>
+      </c>
+      <c r="C65" s="8" t="n">
+        <v>0.72688</v>
+      </c>
+      <c r="D65" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E65" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F65" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G65" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H65" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="I65" s="8" t="n">
+        <v>0.5722429999999999</v>
+      </c>
+      <c r="J65" s="9" t="n">
+        <v>0.3497647861869501</v>
+      </c>
+      <c r="K65" s="9" t="n">
+        <v>127.8790364650741</v>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="11" t="n"/>
-      <c r="C66" s="12" t="n"/>
-      <c r="D66" s="13" t="n"/>
-      <c r="E66" s="12" t="n"/>
-      <c r="F66" s="13" t="n"/>
-      <c r="G66" s="12" t="n"/>
-      <c r="H66" s="13" t="n"/>
-      <c r="I66" s="12" t="n"/>
-      <c r="J66" s="13" t="n"/>
-      <c r="K66" s="13" t="n"/>
+      <c r="A66" s="11" t="inlineStr">
+        <is>
+          <t>727</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>FOOD-PROCESSING MACHINES (EXCLUDING DOMESTIC)</t>
+        </is>
+      </c>
+      <c r="C66" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D66" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E66" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F66" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G66" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H66" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="I66" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J66" s="9" t="n">
+        <v>0.261258696406509</v>
+      </c>
+      <c r="K66" s="9" t="n">
+        <v>-8.666666666666668</v>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="11" t="n"/>
-      <c r="C67" s="12" t="n"/>
-      <c r="D67" s="13" t="n"/>
-      <c r="E67" s="12" t="n"/>
-      <c r="F67" s="13" t="n"/>
-      <c r="G67" s="12" t="n"/>
-      <c r="H67" s="13" t="n"/>
-      <c r="I67" s="12" t="n"/>
-      <c r="J67" s="13" t="n"/>
-      <c r="K67" s="13" t="n"/>
+      <c r="A67" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C67" s="8" t="n">
+        <v>36.523658</v>
+      </c>
+      <c r="D67" s="9" t="n">
+        <v>1.829936757236388</v>
+      </c>
+      <c r="E67" s="8" t="n">
+        <v>46.339941</v>
+      </c>
+      <c r="F67" s="9" t="n">
+        <v>3.336889037720122</v>
+      </c>
+      <c r="G67" s="8" t="n">
+        <v>24.266359</v>
+      </c>
+      <c r="H67" s="9" t="n">
+        <v>2.398525464581114</v>
+      </c>
+      <c r="I67" s="8" t="n">
+        <v>2.260308</v>
+      </c>
+      <c r="J67" s="9" t="n">
+        <v>1.381539213824639</v>
+      </c>
+      <c r="K67" s="9" t="n">
+        <v>-88.84212764860926</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="11" t="n"/>
